--- a/uploads/tes.xlsx
+++ b/uploads/tes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="113">
   <si>
     <r>
       <rPr>
@@ -1225,7 +1225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1240,6 +1240,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1524,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,19 +1931,19 @@
       <c r="B36" s="5">
         <v>1.98810212011012E+17</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>38</v>
+      <c r="C36" s="6">
+        <v>42916.645138888889</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B37" s="5">
-        <v>1.9660703200901101E+17</v>
+        <v>1.98810212011012E+17</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1951,7 +1954,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1962,7 +1965,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1973,7 +1976,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1984,7 +1987,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1995,7 +1998,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2006,7 +2009,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2017,7 +2020,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2028,7 +2031,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2039,7 +2042,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2050,7 +2053,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2061,7 +2064,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2072,7 +2075,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2083,7 +2086,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2094,7 +2097,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2105,7 +2108,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2116,7 +2119,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2127,7 +2130,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2138,7 +2141,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2149,7 +2152,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2160,7 +2163,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2171,7 +2174,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2182,7 +2185,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2193,7 +2196,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2204,7 +2207,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2215,7 +2218,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2226,7 +2229,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2237,7 +2240,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2248,7 +2251,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2259,7 +2262,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2270,7 +2273,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2281,7 +2284,7 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2292,18 +2295,18 @@
         <v>1.9660703200901101E+17</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B70" s="5">
-        <v>1.9740506201001101E+17</v>
+        <v>1.9660703200901101E+17</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2314,7 +2317,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2325,7 +2328,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2336,7 +2339,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2347,7 +2350,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2358,7 +2361,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2369,7 +2372,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2380,7 +2383,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2391,7 +2394,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2402,7 +2405,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2413,7 +2416,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2424,7 +2427,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2435,7 +2438,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2446,7 +2449,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2457,7 +2460,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2468,7 +2471,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2479,7 +2482,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2490,7 +2493,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2501,7 +2504,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2512,7 +2515,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2523,7 +2526,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2534,7 +2537,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2545,7 +2548,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2556,7 +2559,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2567,7 +2570,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2578,7 +2581,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2589,7 +2592,7 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2600,18 +2603,18 @@
         <v>1.9740506201001101E+17</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="B98" s="5">
+        <v>1.9740506201001101E+17</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2622,7 +2625,7 @@
         <v>102</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2633,7 +2636,7 @@
         <v>102</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2644,7 +2647,7 @@
         <v>102</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2655,7 +2658,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2666,7 +2669,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2677,7 +2680,7 @@
         <v>102</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2688,7 +2691,7 @@
         <v>102</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2699,7 +2702,7 @@
         <v>102</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2710,7 +2713,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2721,7 +2724,7 @@
         <v>102</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2732,7 +2735,7 @@
         <v>102</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2743,10 +2746,20 @@
         <v>102</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="112" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
